--- a/kronologi kes-1.xlsx
+++ b/kronologi kes-1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00152617\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05296ED0-DAD2-488F-9ED8-6725257DDCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{758202CF-0966-46FA-A864-5427575AF814}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
   <si>
     <t>Tarikh</t>
   </si>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -801,202 +801,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +826,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1018,46 +857,222 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,24 +1386,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BD4310-CD98-4574-8882-CB6941C2FA07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="25.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,1141 +1427,1141 @@
       <c r="K2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="76" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="77"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
         <v>40338</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="55" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="K3" s="52">
+      <c r="I3" s="111"/>
+      <c r="K3" s="44">
         <v>40338</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="57" t="s">
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="107"/>
+      <c r="T3" s="53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="88"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="88"/>
-    </row>
-    <row r="6" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="53"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="53"/>
+    </row>
+    <row r="6" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>40360</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="49"/>
       <c r="K6" s="6">
         <v>40360</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73" t="s">
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="89"/>
-    </row>
-    <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="49"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>42370</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="49"/>
       <c r="K7" s="6">
         <v>42370</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="73" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="92" t="s">
+      <c r="S7" s="49"/>
+      <c r="T7" s="31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>43683</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="76" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="52"/>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="9">
         <v>43683</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="73" t="s">
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="93" t="s">
+      <c r="S8" s="49"/>
+      <c r="T8" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="62">
         <v>43691</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="43" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="K9" s="49">
+      <c r="I9" s="75"/>
+      <c r="K9" s="62">
         <v>43691</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="43" t="s">
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="99" t="s">
+      <c r="S9" s="75"/>
+      <c r="T9" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="101"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="63"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="56"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="87">
         <v>43693</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="K12" s="83">
+      <c r="I12" s="47"/>
+      <c r="K12" s="87">
         <v>43693</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82" t="s">
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="82"/>
-      <c r="T12" s="99" t="s">
+      <c r="S12" s="47"/>
+      <c r="T12" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="101"/>
-    </row>
-    <row r="14" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="56"/>
+    </row>
+    <row r="14" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>43709</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="59"/>
       <c r="K14" s="9">
         <v>43709</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="27" t="s">
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="27"/>
-      <c r="T14" s="89"/>
-    </row>
-    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="S14" s="59"/>
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="62">
         <v>43859</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="82" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="K15" s="49">
+      <c r="I15" s="47"/>
+      <c r="K15" s="62">
         <v>43859</v>
       </c>
-      <c r="L15" s="84" t="s">
+      <c r="L15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="82" t="s">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="S15" s="82"/>
-      <c r="T15" s="97" t="s">
+      <c r="S15" s="47"/>
+      <c r="T15" s="57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="98"/>
-    </row>
-    <row r="17" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="58"/>
+    </row>
+    <row r="17" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>43878</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="59"/>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17" s="9">
         <v>43878</v>
       </c>
-      <c r="L17" s="84" t="s">
+      <c r="L17" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="27" t="s">
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="89"/>
-    </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="59"/>
+      <c r="T17" s="28"/>
+    </row>
+    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>43900</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="82" t="s">
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="82"/>
+      <c r="I18" s="47"/>
       <c r="K18" s="7">
         <v>43900</v>
       </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="82"/>
-      <c r="T18" s="102" t="s">
+      <c r="S18" s="47"/>
+      <c r="T18" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="89"/>
-    </row>
-    <row r="20" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="28"/>
+    </row>
+    <row r="20" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>44196</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="27" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="59"/>
       <c r="K20" s="9">
         <v>44196</v>
       </c>
-      <c r="L20" s="82" t="s">
+      <c r="L20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="27" t="s">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="89"/>
-    </row>
-    <row r="21" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="59"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>44302</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="76" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="52"/>
       <c r="K21" s="9">
         <v>44302</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="L21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="82" t="s">
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="82"/>
-      <c r="T21" s="90" t="s">
+      <c r="S21" s="47"/>
+      <c r="T21" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>44317</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="27" t="s">
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="59"/>
       <c r="K22" s="8">
         <v>44317</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="82" t="s">
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="82"/>
-      <c r="T22" s="103" t="s">
+      <c r="S22" s="47"/>
+      <c r="T22" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="76" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="52"/>
       <c r="K23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="86" t="s">
+      <c r="L23" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="82" t="s">
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="S23" s="82"/>
-      <c r="T23" s="89"/>
-    </row>
-    <row r="24" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="47"/>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="55" t="s">
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="111"/>
       <c r="K24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="87" t="s">
+      <c r="L24" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="82" t="s">
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="82"/>
-      <c r="T24" s="89"/>
-    </row>
-    <row r="25" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="47"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>44671</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="82"/>
+      <c r="I25" s="47"/>
       <c r="K25" s="9">
         <v>44671</v>
       </c>
-      <c r="L25" s="82" t="s">
+      <c r="L25" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82" t="s">
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="S25" s="82"/>
-      <c r="T25" s="103" t="s">
+      <c r="S25" s="47"/>
+      <c r="T25" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="27" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="59"/>
       <c r="K26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="27" t="s">
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="S26" s="82"/>
-      <c r="T26" s="89"/>
-    </row>
-    <row r="27" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="47"/>
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>44769</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="27" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="17"/>
       <c r="K27" s="9">
         <v>44769</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="27" t="s">
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="89"/>
-    </row>
-    <row r="28" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="59"/>
+      <c r="T27" s="28"/>
+    </row>
+    <row r="28" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>44776</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="59"/>
       <c r="J28" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="9">
         <v>44776</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="27" t="s">
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="89"/>
-    </row>
-    <row r="29" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="59"/>
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>44782</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="82"/>
       <c r="J29" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="9">
         <v>44782</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="82" t="s">
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="S29" s="82"/>
-      <c r="T29" s="103" t="s">
+      <c r="S29" s="47"/>
+      <c r="T29" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="62">
         <v>44890</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="K30" s="49">
+      <c r="I30" s="113"/>
+      <c r="K30" s="62">
         <v>44890</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="43" t="s">
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S30" s="44"/>
-      <c r="T30" s="105" t="s">
+      <c r="S30" s="75"/>
+      <c r="T30" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="106"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="115"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="40"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>44891</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="43" t="s">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="44"/>
+      <c r="I32" s="75"/>
       <c r="J32" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="44">
         <v>44891</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="43" t="s">
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="94"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S32" s="75"/>
+      <c r="T32" s="41"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="95"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="96"/>
-    </row>
-    <row r="35" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="43"/>
+    </row>
+    <row r="35" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>45009</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="82"/>
       <c r="K35" s="22">
         <v>45009</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="73" t="s">
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="S35" s="74"/>
-      <c r="T35" s="108" t="s">
+      <c r="S35" s="49"/>
+      <c r="T35" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>45016</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="24" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="25"/>
+      <c r="I36" s="82"/>
       <c r="K36" s="9">
         <v>45016</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="73" t="s">
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="74"/>
-      <c r="T36" s="109" t="s">
+      <c r="S36" s="49"/>
+      <c r="T36" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>45021</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="82"/>
       <c r="K37" s="9">
         <v>45021</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="73" t="s">
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="S37" s="74"/>
-      <c r="T37" s="90" t="s">
+      <c r="S37" s="49"/>
+      <c r="T37" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>45068</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24" t="s">
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="82"/>
       <c r="K38" s="9">
         <v>45068</v>
       </c>
-      <c r="L38" s="73" t="s">
+      <c r="L38" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="73" t="s">
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="S38" s="74"/>
-      <c r="T38" s="102" t="s">
+      <c r="S38" s="49"/>
+      <c r="T38" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>45071</v>
       </c>
@@ -2556,217 +2573,342 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="82"/>
       <c r="K39" s="9">
         <v>45071</v>
       </c>
-      <c r="L39" s="104" t="s">
+      <c r="L39" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="73" t="s">
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="S39" s="74"/>
-      <c r="T39" s="102" t="s">
+      <c r="S39" s="49"/>
+      <c r="T39" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>45086</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="24" t="s">
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="82"/>
       <c r="K40" s="9">
         <v>45086</v>
       </c>
-      <c r="L40" s="26" t="s">
+      <c r="L40" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="73" t="s">
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="S40" s="74"/>
-      <c r="T40" s="102" t="s">
+      <c r="S40" s="49"/>
+      <c r="T40" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="61"/>
       <c r="K41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27" t="s">
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="27"/>
-      <c r="T41" s="89"/>
-    </row>
-    <row r="42" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="59"/>
+      <c r="T41" s="28"/>
+    </row>
+    <row r="42" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>45131</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="24" t="s">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="I42" s="25"/>
+      <c r="I42" s="82"/>
       <c r="K42" s="9">
         <v>45131</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="73" t="s">
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="S42" s="74"/>
-      <c r="T42" s="102" t="s">
+      <c r="S42" s="49"/>
+      <c r="T42" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>45146</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="26" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="26"/>
+      <c r="I43" s="61"/>
       <c r="K43" s="9">
         <v>45146</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27" t="s">
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="89"/>
-    </row>
-    <row r="44" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="59"/>
+      <c r="T43" s="28"/>
+    </row>
+    <row r="44" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>45156</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24" t="s">
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="25"/>
+      <c r="I44" s="82"/>
       <c r="K44" s="9">
         <v>45156</v>
       </c>
-      <c r="L44" s="82" t="s">
+      <c r="L44" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="73" t="s">
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="74"/>
-      <c r="T44" s="108" t="s">
+      <c r="S44" s="49"/>
+      <c r="T44" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L46" s="110" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L46" s="38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L47" s="110" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L47" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L48" s="110" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L48" s="38" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B32:G34"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:I5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:Q11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:Q5"/>
+    <mergeCell ref="R3:S5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:Q16"/>
+    <mergeCell ref="R15:S16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:Q31"/>
+    <mergeCell ref="L32:Q34"/>
+    <mergeCell ref="R32:S34"/>
+    <mergeCell ref="R30:S31"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="T32:T34"/>
     <mergeCell ref="K32:K34"/>
@@ -2791,134 +2933,883 @@
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="L35:Q35"/>
     <mergeCell ref="R35:S35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:Q31"/>
-    <mergeCell ref="L32:Q34"/>
-    <mergeCell ref="R32:S34"/>
-    <mergeCell ref="R30:S31"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:Q16"/>
-    <mergeCell ref="R15:S16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:Q11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:Q5"/>
-    <mergeCell ref="R3:S5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:I5"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="B32:G34"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="H32:I34"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:I43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
+        <v>40338</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="107"/>
+      <c r="J3" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>40360</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>42370</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>43683</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="62">
+        <v>43691</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="63"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="87">
+        <v>43693</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
+        <v>43709</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="62">
+        <v>43859</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="63"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>43878</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>43900</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>44196</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27">
+        <v>44302</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="27">
+        <v>44671</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="27">
+        <v>44769</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="27">
+        <v>44776</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="27">
+        <v>44782</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="62">
+        <v>44890</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="75"/>
+      <c r="J30" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="44">
+        <v>44891</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="75"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="45"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="46"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+      <c r="A35" s="25">
+        <v>45009</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A36" s="27">
+        <v>45016</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="27">
+        <v>45021</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="27">
+        <v>45068</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="27">
+        <v>45071</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="27">
+        <v>45086</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="27">
+        <v>45131</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="27">
+        <v>45146</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="28"/>
+    </row>
+    <row r="44" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A44" s="27">
+        <v>45156</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="49"/>
+      <c r="J44" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="79">
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:G34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="H3:I5"/>
+    <mergeCell ref="J3:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>